--- a/CodeSystem-be-prescriptionstatus-reason.xlsx
+++ b/CodeSystem-be-prescriptionstatus-reason.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T09:04:29+00:00</t>
+    <t>2022-09-26T12:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
